--- a/data/trans_media/IQ28_P-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ28_P-Edad-trans_media.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,44</t>
+          <t>13,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,22 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>17,26</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>13,67</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>13,13</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>14,48</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>21,02</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13,78</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>13,45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19,49</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,71; 22,35</t>
+          <t>13,34; 14,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 14,92</t>
+          <t>13,26; 15,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 14,82</t>
+          <t>14,91; 20,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,66; 13,81</t>
+          <t>12,91; 14,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,59; 17,01</t>
+          <t>12,63; 13,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 14,05</t>
+          <t>16,97; 27,78</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 14,52</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 14,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16,7; 23,3</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>23,23</t>
+          <t>22,73</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>22,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,41</t>
+          <t>26,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>22,08</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>21,89</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,85</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>24,37</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22,43</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,98</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,78</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 24,42</t>
+          <t>22,16; 23,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,48; 22,7</t>
+          <t>21,42; 22,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,63; 23,63</t>
+          <t>24,8; 29,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,29; 22,71</t>
+          <t>21,45; 22,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,29; 23,65</t>
+          <t>21,27; 22,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,55; 22,44</t>
+          <t>22,52; 26,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>22,01; 22,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>21,51; 22,45</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24,3; 27,64</t>
         </is>
       </c>
     </row>
@@ -761,7 +852,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>37,36</t>
+          <t>37,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,22 +862,37 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>40,39</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>37,52</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>36,34</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>37,44</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>36,38</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>37,28</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>36,88</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>38,64</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,28; 38,75</t>
+          <t>35,98; 38,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>36,39; 38,63</t>
+          <t>36,42; 38,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,3; 38,91</t>
+          <t>37,81; 43,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,32; 37,48</t>
+          <t>36,39; 39,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,52; 38,36</t>
+          <t>35,38; 37,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,12; 37,66</t>
+          <t>33,2; 39,43</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>36,51; 38,22</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 37,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>36,71; 40,94</t>
         </is>
       </c>
     </row>
@@ -851,22 +972,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>51,8</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>51,85</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>51,52</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>48,24</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>54,37</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>53,52</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>50,16</t>
         </is>
       </c>
     </row>
@@ -879,32 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,21; 58,48</t>
+          <t>55,18; 58,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,85; 57,3</t>
+          <t>53,78; 57,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>50,55; 53,28</t>
+          <t>48,76; 55,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,25; 52,96</t>
+          <t>50,43; 53,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,29; 55,64</t>
+          <t>50,29; 53,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,49; 54,62</t>
+          <t>45,86; 51,56</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>53,27; 55,48</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>52,34; 54,58</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>48,42; 52,55</t>
         </is>
       </c>
     </row>
@@ -921,7 +1072,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,75</t>
+          <t>35,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,22 +1082,37 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,17</t>
+          <t>40,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>34,06</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>34,29</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>34,98</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>37,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,77</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>34,65</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39,45</t>
         </is>
       </c>
     </row>
@@ -959,32 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,69; 36,95</t>
+          <t>34,38; 36,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>33,87; 36,05</t>
+          <t>33,92; 36,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,04; 35,21</t>
+          <t>38,89; 42,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,27; 35,37</t>
+          <t>33,06; 35,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>34,12; 35,81</t>
+          <t>33,31; 35,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>33,83; 35,43</t>
+          <t>35,89; 40,64</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,98; 35,55</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>33,88; 35,43</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37,99; 41,11</t>
         </is>
       </c>
     </row>
@@ -997,12 +1178,12 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
